--- a/Peru_fragmentacion/Estadisticas_consolidadas_fragmentacion_peru.xlsx
+++ b/Peru_fragmentacion/Estadisticas_consolidadas_fragmentacion_peru.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Mi unidad\git\SDG15_indicators\Peru_fragmentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1D7392-1842-4E12-9125-51C11B5A4376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A451FC-AF42-43C5-8661-71E7DBD83D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="810" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estadísticas_compiladas" sheetId="1" r:id="rId1"/>
@@ -629,7 +629,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -639,6 +639,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -732,17 +735,25 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>% área en bosque total y núcleo en Perú</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
+            <a:endParaRPr lang="en-US" sz="1400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16284738237876248"/>
+          <c:y val="1.4918412727872881E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -818,10 +829,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Gráfica!$A$2:$A$20</c:f>
+              <c:f>Gráfica!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -832,51 +843,57 @@
                   <c:v>2002</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2004</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2005</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2007</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>2008</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>2009</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>2010</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>2011</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>2012</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>2013</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>2014</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>2019</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
@@ -884,66 +901,72 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Gráfica!$B$2:$B$20</c:f>
+              <c:f>Gráfica!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>35.529222271559604</c:v>
+                  <c:v>56.196810238216763</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.416860848526596</c:v>
+                  <c:v>56.130055158932514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.321318957110599</c:v>
+                  <c:v>56.066609083148656</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.157311045865505</c:v>
+                  <c:v>56.00869272401372</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.040140320518198</c:v>
+                  <c:v>55.934664946858433</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.922497783477304</c:v>
+                  <c:v>55.81734080945435</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.864946784418102</c:v>
+                  <c:v>55.758130446983515</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.789204958755398</c:v>
+                  <c:v>55.673739055691939</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.725558971688095</c:v>
+                  <c:v>55.589730765493016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.673980567932396</c:v>
+                  <c:v>55.468801000198845</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.5492681184517</c:v>
+                  <c:v>55.360551909682343</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.442586569731795</c:v>
+                  <c:v>55.26235013886005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.3121683804047</c:v>
+                  <c:v>55.143553322517114</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.194919589878999</c:v>
+                  <c:v>55.024110970819208</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34.070829740654105</c:v>
+                  <c:v>54.882986499215647</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33.952657944195003</c:v>
+                  <c:v>54.758626205261173</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>33.840897332517301</c:v>
+                  <c:v>54.627752835094356</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33.728577612970902</c:v>
+                  <c:v>54.503833794060085</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33.589946601379602</c:v>
+                  <c:v>54.380829875389395</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>54.262864351223214</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>54.101305055616457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -997,10 +1020,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Gráfica!$A$2:$A$20</c:f>
+              <c:f>Gráfica!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1011,51 +1034,57 @@
                   <c:v>2002</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2004</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2005</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2007</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>2008</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>2009</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>2010</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>2011</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>2012</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>2013</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>2014</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>2019</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
@@ -1063,66 +1092,72 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Gráfica!$C$2:$C$20</c:f>
+              <c:f>Gráfica!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>33.899586808962496</c:v>
+                  <c:v>36.824493368367733</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.720108576040033</c:v>
+                  <c:v>36.612556422132549</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.570367458633996</c:v>
+                  <c:v>36.408394296559734</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.328941724417909</c:v>
+                  <c:v>36.245834832435705</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.171308355468682</c:v>
+                  <c:v>36.022298277500951</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.022330836595991</c:v>
+                  <c:v>35.760382303189495</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.956484745678367</c:v>
+                  <c:v>35.593021987266077</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.873713438812665</c:v>
+                  <c:v>35.404737456436578</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.807866224710466</c:v>
+                  <c:v>35.183056753060796</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.754735137668114</c:v>
+                  <c:v>34.909440530909102</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.58648176314464</c:v>
+                  <c:v>34.653016792855865</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.459933976168443</c:v>
+                  <c:v>34.416738192580063</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32.29176794519806</c:v>
+                  <c:v>34.065363535377394</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32.13929502056795</c:v>
+                  <c:v>33.767438061125887</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31.978250103252932</c:v>
+                  <c:v>33.366698296063191</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.824584434022146</c:v>
+                  <c:v>32.987859167306084</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31.684306065826068</c:v>
+                  <c:v>32.579795061543955</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31.542402624330872</c:v>
+                  <c:v>32.669893056900825</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31.369719833197333</c:v>
+                  <c:v>31.987699161801558</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31.676779865538695</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31.376978512038534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1914,16 +1949,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>228599</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1952,9 +1987,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1992,7 +2027,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2098,7 +2133,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2240,7 +2275,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2248,10 +2283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2260,6 +2295,7 @@
     <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -2301,611 +2337,839 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>2000</v>
       </c>
-      <c r="B2" s="2">
-        <v>2134114125</v>
-      </c>
-      <c r="C2" s="2">
-        <v>794684308</v>
-      </c>
-      <c r="D2" s="2">
-        <v>758234151</v>
+      <c r="B2">
+        <v>1398064402</v>
+      </c>
+      <c r="C2">
+        <v>785667599</v>
+      </c>
+      <c r="D2">
+        <v>514830133</v>
       </c>
       <c r="E2" s="2">
-        <v>0.35529222271559602</v>
+        <f>+C2/B2</f>
+        <v>0.56196810238216766</v>
       </c>
       <c r="F2" s="2">
-        <v>0.33899586808962495</v>
+        <f>+D2/B2</f>
+        <v>0.36824493368367733</v>
       </c>
       <c r="G2" s="2">
-        <v>0.95413253208467796</v>
+        <f>+D2/C2</f>
+        <v>0.65527728730989709</v>
       </c>
       <c r="H2" s="2">
-        <v>35.529222271559604</v>
+        <f>+E2*100</f>
+        <v>56.196810238216763</v>
       </c>
       <c r="I2" s="2">
-        <v>33.899586808962496</v>
+        <f t="shared" ref="I2:J2" si="0">+F2*100</f>
+        <v>36.824493368367733</v>
       </c>
       <c r="J2" s="2">
-        <v>95.413253208467793</v>
+        <f t="shared" si="0"/>
+        <v>65.527728730989708</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="5">
         <v>2001</v>
       </c>
-      <c r="B3" s="2">
-        <v>2134114125</v>
-      </c>
-      <c r="C3" s="2">
-        <v>793868932</v>
-      </c>
-      <c r="D3" s="2">
-        <v>755836230</v>
+      <c r="B3">
+        <v>1398064402</v>
+      </c>
+      <c r="C3">
+        <v>784734320</v>
+      </c>
+      <c r="D3">
+        <v>511867118</v>
       </c>
       <c r="E3" s="2">
-        <v>0.35416860848526599</v>
+        <f t="shared" ref="E3:E23" si="1">+C3/B3</f>
+        <v>0.56130055158932513</v>
       </c>
       <c r="F3" s="2">
-        <v>0.33720108576040031</v>
+        <f t="shared" ref="F3:F23" si="2">+D3/B3</f>
+        <v>0.36612556422132547</v>
       </c>
       <c r="G3" s="2">
-        <v>0.95209196321087397</v>
+        <f t="shared" ref="G3:G23" si="3">+D3/C3</f>
+        <v>0.65228078466097927</v>
       </c>
       <c r="H3" s="2">
-        <v>35.416860848526596</v>
+        <f t="shared" ref="H3:H20" si="4">+E3*100</f>
+        <v>56.130055158932514</v>
       </c>
       <c r="I3" s="2">
-        <v>33.720108576040033</v>
+        <f t="shared" ref="I3:I21" si="5">+F3*100</f>
+        <v>36.612556422132549</v>
       </c>
       <c r="J3" s="2">
-        <v>95.209196321087404</v>
+        <f t="shared" ref="J3:J21" si="6">+G3*100</f>
+        <v>65.228078466097926</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="5">
         <v>2002</v>
       </c>
-      <c r="B4" s="2">
-        <v>2134114125</v>
-      </c>
-      <c r="C4" s="2">
-        <v>793113551</v>
-      </c>
-      <c r="D4" s="2">
-        <v>753797257</v>
+      <c r="B4">
+        <v>1398064402</v>
+      </c>
+      <c r="C4">
+        <v>783847303</v>
+      </c>
+      <c r="D4">
+        <v>509012800</v>
       </c>
       <c r="E4" s="2">
-        <v>0.35321318957110598</v>
+        <f t="shared" si="1"/>
+        <v>0.56066609083148655</v>
       </c>
       <c r="F4" s="2">
-        <v>0.33570367458633998</v>
+        <f t="shared" si="2"/>
+        <v>0.36408394296559737</v>
       </c>
       <c r="G4" s="2">
-        <v>0.95042791293828199</v>
+        <f t="shared" si="3"/>
+        <v>0.64937749744352946</v>
       </c>
       <c r="H4" s="2">
-        <v>35.321318957110599</v>
+        <f t="shared" si="4"/>
+        <v>56.066609083148656</v>
       </c>
       <c r="I4" s="2">
-        <v>33.570367458633996</v>
+        <f t="shared" si="5"/>
+        <v>36.408394296559734</v>
       </c>
       <c r="J4" s="2">
-        <v>95.042791293828202</v>
+        <f t="shared" si="6"/>
+        <v>64.937749744352942</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B5">
+        <v>1398064402</v>
+      </c>
+      <c r="C5">
+        <v>783037595</v>
+      </c>
+      <c r="D5">
+        <v>506740114</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5600869272401372</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.36245834832435708</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.64714659581574752</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="4"/>
+        <v>56.00869272401372</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="5"/>
+        <v>36.245834832435705</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="6"/>
+        <v>64.71465958157475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>2004</v>
       </c>
-      <c r="B5" s="2">
-        <v>2134114125</v>
-      </c>
-      <c r="C5" s="2">
-        <v>791457172</v>
-      </c>
-      <c r="D5" s="2">
-        <v>750297141</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.35157311045865502</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.3332894172441791</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.94799461997926004</v>
-      </c>
-      <c r="H5" s="2">
-        <v>35.157311045865505</v>
-      </c>
-      <c r="I5" s="2">
-        <v>33.328941724417909</v>
-      </c>
-      <c r="J5" s="2">
-        <v>94.799461997926002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="B6">
+        <v>1398064402</v>
+      </c>
+      <c r="C6">
+        <v>782002639</v>
+      </c>
+      <c r="D6">
+        <v>503614929</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.55934664946858437</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.36022298277500953</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.64400668729712562</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="4"/>
+        <v>55.934664946858433</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="5"/>
+        <v>36.022298277500951</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="6"/>
+        <v>64.400668729712564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>2005</v>
       </c>
-      <c r="B6" s="2">
-        <v>2134114125</v>
-      </c>
-      <c r="C6" s="2">
-        <v>789926552</v>
-      </c>
-      <c r="D6" s="2">
-        <v>747796584</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.35040140320518198</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.33171308355468682</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.94666596800255398</v>
-      </c>
-      <c r="H6" s="2">
-        <v>35.040140320518198</v>
-      </c>
-      <c r="I6" s="2">
-        <v>33.171308355468682</v>
-      </c>
-      <c r="J6" s="2">
-        <v>94.666596800255405</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="B7">
+        <v>1398064402</v>
+      </c>
+      <c r="C7">
+        <v>780362372</v>
+      </c>
+      <c r="D7">
+        <v>499953175</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.55817340809454352</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.35760382303189492</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.64066796777843615</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="4"/>
+        <v>55.81734080945435</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="5"/>
+        <v>35.760382303189495</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="6"/>
+        <v>64.066796777843621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B8">
+        <v>1398064402</v>
+      </c>
+      <c r="C8">
+        <v>779534573</v>
+      </c>
+      <c r="D8">
+        <v>497613370</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.55758130446983512</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.35593021987266077</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.63834676130522305</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="4"/>
+        <v>55.758130446983515</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="5"/>
+        <v>35.593021987266077</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="6"/>
+        <v>63.834676130522304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>2007</v>
       </c>
-      <c r="B7" s="2">
-        <v>2134114125</v>
-      </c>
-      <c r="C7" s="2">
-        <v>788171112</v>
-      </c>
-      <c r="D7" s="2">
-        <v>745285958</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.34922497783477302</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.33022330836595992</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.94558903092606605</v>
-      </c>
-      <c r="H7" s="2">
-        <v>34.922497783477304</v>
-      </c>
-      <c r="I7" s="2">
-        <v>33.022330836595991</v>
-      </c>
-      <c r="J7" s="2">
-        <v>94.558903092606599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="B9">
+        <v>1398064402</v>
+      </c>
+      <c r="C9">
+        <v>778354727</v>
+      </c>
+      <c r="D9">
+        <v>494981031</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5567373905569194</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.35404737456436575</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.63593245319880998</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="4"/>
+        <v>55.673739055691939</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="5"/>
+        <v>35.404737456436578</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="6"/>
+        <v>63.593245319880999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>2008</v>
       </c>
-      <c r="B8" s="2">
-        <v>2134114125</v>
-      </c>
-      <c r="C8" s="2">
-        <v>787145055</v>
-      </c>
-      <c r="D8" s="2">
-        <v>744057754</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.34864946784418099</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.32956484745678366</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.94526129494645705</v>
-      </c>
-      <c r="H8" s="2">
-        <v>34.864946784418102</v>
-      </c>
-      <c r="I8" s="2">
-        <v>32.956484745678367</v>
-      </c>
-      <c r="J8" s="2">
-        <v>94.526129494645701</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="B10">
+        <v>1398064402</v>
+      </c>
+      <c r="C10">
+        <v>777180237</v>
+      </c>
+      <c r="D10">
+        <v>491881792</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.55589730765493017</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.35183056753060793</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="3"/>
+        <v>0.63290568722992369</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="4"/>
+        <v>55.589730765493016</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="5"/>
+        <v>35.183056753060796</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="6"/>
+        <v>63.290568722992369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>2009</v>
       </c>
-      <c r="B9" s="2">
-        <v>2134114125</v>
-      </c>
-      <c r="C9" s="2">
-        <v>785702044</v>
-      </c>
-      <c r="D9" s="2">
-        <v>742441337</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.34789204958755399</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.32873713438812663</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.94494006050975698</v>
-      </c>
-      <c r="H9" s="2">
-        <v>34.789204958755398</v>
-      </c>
-      <c r="I9" s="2">
-        <v>32.873713438812665</v>
-      </c>
-      <c r="J9" s="2">
-        <v>94.494006050975699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="B11">
+        <v>1398064402</v>
+      </c>
+      <c r="C11">
+        <v>775489561</v>
+      </c>
+      <c r="D11">
+        <v>488056461</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.55468801000198842</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.34909440530909103</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.62935271542617188</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="4"/>
+        <v>55.468801000198845</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="5"/>
+        <v>34.909440530909102</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="6"/>
+        <v>62.935271542617187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>2010</v>
       </c>
-      <c r="B10" s="2">
-        <v>2134114125</v>
-      </c>
-      <c r="C10" s="2">
-        <v>784401012</v>
-      </c>
-      <c r="D10" s="2">
-        <v>741083059</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.34725558971688097</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.32807866224710469</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.94477575584769902</v>
-      </c>
-      <c r="H10" s="2">
-        <v>34.725558971688095</v>
-      </c>
-      <c r="I10" s="2">
-        <v>32.807866224710466</v>
-      </c>
-      <c r="J10" s="2">
-        <v>94.477575584769909</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="B12">
+        <v>1398064402</v>
+      </c>
+      <c r="C12">
+        <v>773976169</v>
+      </c>
+      <c r="D12">
+        <v>484471492</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.55360551909682343</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.34653016792855867</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="3"/>
+        <v>0.6259514328793242</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="4"/>
+        <v>55.360551909682343</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="5"/>
+        <v>34.653016792855865</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="6"/>
+        <v>62.595143287932423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>2011</v>
       </c>
-      <c r="B11" s="2">
-        <v>2134114125</v>
-      </c>
-      <c r="C11" s="2">
-        <v>783341168</v>
-      </c>
-      <c r="D11" s="2">
-        <v>739982317</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.346739805679324</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.32754735137668112</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.94464882892507396</v>
-      </c>
-      <c r="H11" s="2">
-        <v>34.673980567932396</v>
-      </c>
-      <c r="I11" s="2">
-        <v>32.754735137668114</v>
-      </c>
-      <c r="J11" s="2">
-        <v>94.46488289250739</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="B13">
+        <v>1398064402</v>
+      </c>
+      <c r="C13">
+        <v>772603245</v>
+      </c>
+      <c r="D13">
+        <v>481168165</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5526235013886005</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.3441673819258006</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.6227881750613149</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="4"/>
+        <v>55.26235013886005</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="5"/>
+        <v>34.416738192580063</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="6"/>
+        <v>62.278817506131489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>2012</v>
       </c>
-      <c r="B12" s="2">
-        <v>2134114125</v>
-      </c>
-      <c r="C12" s="2">
-        <v>781731964</v>
-      </c>
-      <c r="D12" s="2">
-        <v>737320811</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.34549268118451698</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.32586481763144637</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.94318877179749006</v>
-      </c>
-      <c r="H12" s="2">
-        <v>34.5492681184517</v>
-      </c>
-      <c r="I12" s="2">
-        <v>32.58648176314464</v>
-      </c>
-      <c r="J12" s="2">
-        <v>94.318877179749009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="B14">
+        <v>1398064402</v>
+      </c>
+      <c r="C14">
+        <v>770942389</v>
+      </c>
+      <c r="D14">
+        <v>476255721</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.55143553322517114</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.34065363535377391</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.61775786076279693</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="4"/>
+        <v>55.143553322517114</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="5"/>
+        <v>34.065363535377394</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="6"/>
+        <v>61.775786076279694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>2013</v>
       </c>
-      <c r="B13" s="2">
-        <v>2134114125</v>
-      </c>
-      <c r="C13" s="2">
-        <v>779940595</v>
-      </c>
-      <c r="D13" s="2">
-        <v>735044105</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.34442586569731798</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.32459933976168442</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.94243601334791405</v>
-      </c>
-      <c r="H13" s="2">
-        <v>34.442586569731795</v>
-      </c>
-      <c r="I13" s="2">
-        <v>32.459933976168443</v>
-      </c>
-      <c r="J13" s="2">
-        <v>94.243601334791407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="B15">
+        <v>1398064402</v>
+      </c>
+      <c r="C15">
+        <v>769272508</v>
+      </c>
+      <c r="D15">
+        <v>472090531</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.55024110970819207</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.33767438061125887</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.61368439153944132</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="4"/>
+        <v>55.024110970819208</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="5"/>
+        <v>33.767438061125887</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="6"/>
+        <v>61.368439153944131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>2014</v>
       </c>
-      <c r="B14" s="2">
-        <v>2134114125</v>
-      </c>
-      <c r="C14" s="2">
-        <v>778076227</v>
-      </c>
-      <c r="D14" s="2">
-        <v>732260832</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.34312168380404701</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.32291767945198058</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.94111708671957695</v>
-      </c>
-      <c r="H14" s="2">
-        <v>34.3121683804047</v>
-      </c>
-      <c r="I14" s="2">
-        <v>32.29176794519806</v>
-      </c>
-      <c r="J14" s="2">
-        <v>94.1117086719577</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="B16">
+        <v>1398064402</v>
+      </c>
+      <c r="C16">
+        <v>767299497</v>
+      </c>
+      <c r="D16">
+        <v>466487931</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54882986499215647</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.33366698296063191</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.60796068917532475</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="4"/>
+        <v>54.882986499215647</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="5"/>
+        <v>33.366698296063191</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="6"/>
+        <v>60.796068917532473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>2015</v>
       </c>
-      <c r="B15" s="2">
-        <v>2134114125</v>
-      </c>
-      <c r="C15" s="2">
-        <v>776433862</v>
-      </c>
-      <c r="D15" s="2">
-        <v>729758609</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.34194919589879003</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.32139295020567948</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.93988508837086204</v>
-      </c>
-      <c r="H15" s="2">
-        <v>34.194919589878999</v>
-      </c>
-      <c r="I15" s="2">
-        <v>32.13929502056795</v>
-      </c>
-      <c r="J15" s="2">
-        <v>93.988508837086201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="B17">
+        <v>1398064402</v>
+      </c>
+      <c r="C17">
+        <v>765560860</v>
+      </c>
+      <c r="D17">
+        <v>461191516</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54758626205261174</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>0.32987859167306083</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="3"/>
+        <v>0.60242306013397806</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="4"/>
+        <v>54.758626205261173</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="5"/>
+        <v>32.987859167306084</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="6"/>
+        <v>60.242306013397808</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>2016</v>
       </c>
-      <c r="B16" s="2">
-        <v>2134114125</v>
-      </c>
-      <c r="C16" s="2">
-        <v>774690742</v>
-      </c>
-      <c r="D16" s="2">
-        <v>727110390</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.34070829740654102</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.31978250103252931</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.93858148881815295</v>
-      </c>
-      <c r="H16" s="2">
-        <v>34.070829740654105</v>
-      </c>
-      <c r="I16" s="2">
-        <v>31.978250103252932</v>
-      </c>
-      <c r="J16" s="2">
-        <v>93.858148881815296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="B18">
+        <v>1398064402</v>
+      </c>
+      <c r="C18">
+        <v>763731166</v>
+      </c>
+      <c r="D18">
+        <v>455486517</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54627752835094356</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>0.32579795061543954</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="3"/>
+        <v>0.59639639872965455</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="4"/>
+        <v>54.627752835094356</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="5"/>
+        <v>32.579795061543955</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="6"/>
+        <v>59.639639872965454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>2017</v>
       </c>
-      <c r="B17" s="2">
-        <v>2134114125</v>
-      </c>
-      <c r="C17" s="2">
-        <v>773040870</v>
-      </c>
-      <c r="D17" s="2">
-        <v>724588469</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.33952657944195003</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.31824584434022146</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.93732232941319105</v>
-      </c>
-      <c r="H17" s="2">
-        <v>33.952657944195003</v>
-      </c>
-      <c r="I17" s="2">
-        <v>31.824584434022146</v>
-      </c>
-      <c r="J17" s="2">
-        <v>93.732232941319111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="B19">
+        <v>1398064402</v>
+      </c>
+      <c r="C19">
+        <v>761998698</v>
+      </c>
+      <c r="D19">
+        <v>456746145</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54503833794060086</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.32669893056900823</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="3"/>
+        <v>0.59940541394468372</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="4"/>
+        <v>54.503833794060085</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="5"/>
+        <v>32.669893056900825</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="6"/>
+        <v>59.940541394468369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>2018</v>
       </c>
-      <c r="B18" s="2">
-        <v>2134114125</v>
-      </c>
-      <c r="C18" s="2">
-        <v>771360119</v>
-      </c>
-      <c r="D18" s="2">
-        <v>722203370</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.338408973325173</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.31684306065826068</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.93627263350907097</v>
-      </c>
-      <c r="H18" s="2">
-        <v>33.840897332517301</v>
-      </c>
-      <c r="I18" s="2">
-        <v>31.684306065826068</v>
-      </c>
-      <c r="J18" s="2">
-        <v>93.6272633509071</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="B20">
+        <v>1398064402</v>
+      </c>
+      <c r="C20">
+        <v>760279024</v>
+      </c>
+      <c r="D20">
+        <v>447208635</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54380829875389392</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>0.31987699161801558</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="3"/>
+        <v>0.58821645854062121</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="4"/>
+        <v>54.380829875389395</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="5"/>
+        <v>31.987699161801558</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="6"/>
+        <v>58.821645854062119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>2019</v>
       </c>
-      <c r="B19" s="2">
-        <v>2134114125</v>
-      </c>
-      <c r="C19" s="2">
-        <v>769695456</v>
-      </c>
-      <c r="D19" s="2">
-        <v>719806339</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.337285776129709</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.31542402624330873</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.93518330319985699</v>
-      </c>
-      <c r="H19" s="2">
-        <v>33.728577612970902</v>
-      </c>
-      <c r="I19" s="2">
-        <v>31.542402624330872</v>
-      </c>
-      <c r="J19" s="2">
-        <v>93.518330319985694</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="B21">
+        <v>1398064402</v>
+      </c>
+      <c r="C21">
+        <v>758629790</v>
+      </c>
+      <c r="D21">
+        <v>442861783</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54262864351223217</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>0.31676779865538696</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="3"/>
+        <v>0.58376534752214249</v>
+      </c>
+      <c r="H21" s="2">
+        <f>+E21*100</f>
+        <v>54.262864351223214</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="5"/>
+        <v>31.676779865538695</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="6"/>
+        <v>58.376534752214248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>2020</v>
       </c>
-      <c r="B20" s="2">
-        <v>2134114125</v>
-      </c>
-      <c r="C20" s="2">
-        <v>767583494</v>
-      </c>
-      <c r="D20" s="2">
-        <v>716847795</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.335899466013796</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.31369719833197335</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.93390204531938503</v>
-      </c>
-      <c r="H20" s="2">
-        <v>33.589946601379602</v>
-      </c>
-      <c r="I20" s="2">
-        <v>31.369719833197333</v>
-      </c>
-      <c r="J20" s="2">
-        <v>93.390204531938508</v>
+      <c r="B22">
+        <v>1398064402</v>
+      </c>
+      <c r="C22">
+        <v>756371087</v>
+      </c>
+      <c r="D22">
+        <v>438670367</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54101305055616455</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>0.31376978512038534</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="3"/>
+        <v>0.57996712796082861</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" ref="H22:H23" si="7">+E22*100</f>
+        <v>54.101305055616457</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" ref="I22:I23" si="8">+F22*100</f>
+        <v>31.376978512038534</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" ref="J22:J23" si="9">+G22*100</f>
+        <v>57.996712796082861</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B23">
+        <v>1398064402</v>
+      </c>
+      <c r="C23">
+        <v>754837986</v>
+      </c>
+      <c r="D23">
+        <v>435516028</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5399164623032866</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="2"/>
+        <v>0.31151356645443007</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="3"/>
+        <v>0.57696623126753988</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="7"/>
+        <v>53.991646230328662</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="8"/>
+        <v>31.151356645443006</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="9"/>
+        <v>57.696623126753991</v>
       </c>
     </row>
   </sheetData>
@@ -2915,10 +3179,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F884EFA-F972-4EE2-8C43-D41DCC7DC7FE}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2936,211 +3200,296 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
+        <f>+Estadísticas_compiladas!A2</f>
         <v>2000</v>
       </c>
       <c r="B2" s="2">
-        <v>35.529222271559604</v>
+        <f>+Estadísticas_compiladas!H2</f>
+        <v>56.196810238216763</v>
       </c>
       <c r="C2" s="2">
-        <v>33.899586808962496</v>
+        <f>+Estadísticas_compiladas!I2</f>
+        <v>36.824493368367733</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
+        <f>+Estadísticas_compiladas!A3</f>
         <v>2001</v>
       </c>
       <c r="B3" s="2">
-        <v>35.416860848526596</v>
+        <f>+Estadísticas_compiladas!H3</f>
+        <v>56.130055158932514</v>
       </c>
       <c r="C3" s="2">
-        <v>33.720108576040033</v>
+        <f>+Estadísticas_compiladas!I3</f>
+        <v>36.612556422132549</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
+        <f>+Estadísticas_compiladas!A4</f>
         <v>2002</v>
       </c>
       <c r="B4" s="2">
-        <v>35.321318957110599</v>
+        <f>+Estadísticas_compiladas!H4</f>
+        <v>56.066609083148656</v>
       </c>
       <c r="C4" s="2">
-        <v>33.570367458633996</v>
+        <f>+Estadísticas_compiladas!I4</f>
+        <v>36.408394296559734</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>2004</v>
+        <f>+Estadísticas_compiladas!A5</f>
+        <v>2003</v>
       </c>
       <c r="B5" s="2">
-        <v>35.157311045865505</v>
+        <f>+Estadísticas_compiladas!H5</f>
+        <v>56.00869272401372</v>
       </c>
       <c r="C5" s="2">
-        <v>33.328941724417909</v>
+        <f>+Estadísticas_compiladas!I5</f>
+        <v>36.245834832435705</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>2005</v>
+        <f>+Estadísticas_compiladas!A6</f>
+        <v>2004</v>
       </c>
       <c r="B6" s="2">
-        <v>35.040140320518198</v>
+        <f>+Estadísticas_compiladas!H6</f>
+        <v>55.934664946858433</v>
       </c>
       <c r="C6" s="2">
-        <v>33.171308355468682</v>
+        <f>+Estadísticas_compiladas!I6</f>
+        <v>36.022298277500951</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>2007</v>
+        <f>+Estadísticas_compiladas!A7</f>
+        <v>2005</v>
       </c>
       <c r="B7" s="2">
-        <v>34.922497783477304</v>
+        <f>+Estadísticas_compiladas!H7</f>
+        <v>55.81734080945435</v>
       </c>
       <c r="C7" s="2">
-        <v>33.022330836595991</v>
+        <f>+Estadísticas_compiladas!I7</f>
+        <v>35.760382303189495</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2008</v>
+        <f>+Estadísticas_compiladas!A8</f>
+        <v>2006</v>
       </c>
       <c r="B8" s="2">
-        <v>34.864946784418102</v>
+        <f>+Estadísticas_compiladas!H8</f>
+        <v>55.758130446983515</v>
       </c>
       <c r="C8" s="2">
-        <v>32.956484745678367</v>
+        <f>+Estadísticas_compiladas!I8</f>
+        <v>35.593021987266077</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>2009</v>
+        <f>+Estadísticas_compiladas!A9</f>
+        <v>2007</v>
       </c>
       <c r="B9" s="2">
-        <v>34.789204958755398</v>
+        <f>+Estadísticas_compiladas!H9</f>
+        <v>55.673739055691939</v>
       </c>
       <c r="C9" s="2">
-        <v>32.873713438812665</v>
+        <f>+Estadísticas_compiladas!I9</f>
+        <v>35.404737456436578</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>2010</v>
+        <f>+Estadísticas_compiladas!A10</f>
+        <v>2008</v>
       </c>
       <c r="B10" s="2">
-        <v>34.725558971688095</v>
+        <f>+Estadísticas_compiladas!H10</f>
+        <v>55.589730765493016</v>
       </c>
       <c r="C10" s="2">
-        <v>32.807866224710466</v>
+        <f>+Estadísticas_compiladas!I10</f>
+        <v>35.183056753060796</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>2011</v>
+        <f>+Estadísticas_compiladas!A11</f>
+        <v>2009</v>
       </c>
       <c r="B11" s="2">
-        <v>34.673980567932396</v>
+        <f>+Estadísticas_compiladas!H11</f>
+        <v>55.468801000198845</v>
       </c>
       <c r="C11" s="2">
-        <v>32.754735137668114</v>
+        <f>+Estadísticas_compiladas!I11</f>
+        <v>34.909440530909102</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>2012</v>
+        <f>+Estadísticas_compiladas!A12</f>
+        <v>2010</v>
       </c>
       <c r="B12" s="2">
-        <v>34.5492681184517</v>
+        <f>+Estadísticas_compiladas!H12</f>
+        <v>55.360551909682343</v>
       </c>
       <c r="C12" s="2">
-        <v>32.58648176314464</v>
+        <f>+Estadísticas_compiladas!I12</f>
+        <v>34.653016792855865</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>2013</v>
+        <f>+Estadísticas_compiladas!A13</f>
+        <v>2011</v>
       </c>
       <c r="B13" s="2">
-        <v>34.442586569731795</v>
+        <f>+Estadísticas_compiladas!H13</f>
+        <v>55.26235013886005</v>
       </c>
       <c r="C13" s="2">
-        <v>32.459933976168443</v>
+        <f>+Estadísticas_compiladas!I13</f>
+        <v>34.416738192580063</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>2014</v>
+        <f>+Estadísticas_compiladas!A14</f>
+        <v>2012</v>
       </c>
       <c r="B14" s="2">
-        <v>34.3121683804047</v>
+        <f>+Estadísticas_compiladas!H14</f>
+        <v>55.143553322517114</v>
       </c>
       <c r="C14" s="2">
-        <v>32.29176794519806</v>
+        <f>+Estadísticas_compiladas!I14</f>
+        <v>34.065363535377394</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>2015</v>
+        <f>+Estadísticas_compiladas!A15</f>
+        <v>2013</v>
       </c>
       <c r="B15" s="2">
-        <v>34.194919589878999</v>
+        <f>+Estadísticas_compiladas!H15</f>
+        <v>55.024110970819208</v>
       </c>
       <c r="C15" s="2">
-        <v>32.13929502056795</v>
+        <f>+Estadísticas_compiladas!I15</f>
+        <v>33.767438061125887</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>2016</v>
+        <f>+Estadísticas_compiladas!A16</f>
+        <v>2014</v>
       </c>
       <c r="B16" s="2">
-        <v>34.070829740654105</v>
+        <f>+Estadísticas_compiladas!H16</f>
+        <v>54.882986499215647</v>
       </c>
       <c r="C16" s="2">
-        <v>31.978250103252932</v>
+        <f>+Estadísticas_compiladas!I16</f>
+        <v>33.366698296063191</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>2017</v>
+        <f>+Estadísticas_compiladas!A17</f>
+        <v>2015</v>
       </c>
       <c r="B17" s="2">
-        <v>33.952657944195003</v>
+        <f>+Estadísticas_compiladas!H17</f>
+        <v>54.758626205261173</v>
       </c>
       <c r="C17" s="2">
-        <v>31.824584434022146</v>
+        <f>+Estadísticas_compiladas!I17</f>
+        <v>32.987859167306084</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>2018</v>
+        <f>+Estadísticas_compiladas!A18</f>
+        <v>2016</v>
       </c>
       <c r="B18" s="2">
-        <v>33.840897332517301</v>
+        <f>+Estadísticas_compiladas!H18</f>
+        <v>54.627752835094356</v>
       </c>
       <c r="C18" s="2">
-        <v>31.684306065826068</v>
+        <f>+Estadísticas_compiladas!I18</f>
+        <v>32.579795061543955</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>2019</v>
+        <f>+Estadísticas_compiladas!A19</f>
+        <v>2017</v>
       </c>
       <c r="B19" s="2">
-        <v>33.728577612970902</v>
+        <f>+Estadísticas_compiladas!H19</f>
+        <v>54.503833794060085</v>
       </c>
       <c r="C19" s="2">
-        <v>31.542402624330872</v>
+        <f>+Estadísticas_compiladas!I19</f>
+        <v>32.669893056900825</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
+        <f>+Estadísticas_compiladas!A20</f>
+        <v>2018</v>
+      </c>
+      <c r="B20" s="2">
+        <f>+Estadísticas_compiladas!H20</f>
+        <v>54.380829875389395</v>
+      </c>
+      <c r="C20" s="2">
+        <f>+Estadísticas_compiladas!I20</f>
+        <v>31.987699161801558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f>+Estadísticas_compiladas!A21</f>
+        <v>2019</v>
+      </c>
+      <c r="B21" s="2">
+        <f>+Estadísticas_compiladas!H21</f>
+        <v>54.262864351223214</v>
+      </c>
+      <c r="C21" s="2">
+        <f>+Estadísticas_compiladas!I21</f>
+        <v>31.676779865538695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f>+Estadísticas_compiladas!A22</f>
         <v>2020</v>
       </c>
-      <c r="B20" s="2">
-        <v>33.589946601379602</v>
-      </c>
-      <c r="C20" s="2">
-        <v>31.369719833197333</v>
+      <c r="B22" s="2">
+        <f>+Estadísticas_compiladas!H22</f>
+        <v>54.101305055616457</v>
+      </c>
+      <c r="C22" s="2">
+        <f>+Estadísticas_compiladas!I22</f>
+        <v>31.376978512038534</v>
       </c>
     </row>
   </sheetData>
